--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/SNNP 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/SNNP 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19FFAD7-0B6E-4D52-B699-97A9765F39E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274346C-3E9C-46A3-96D5-D5DE8075FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,7 +95,7 @@
     <author>WT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F263E43-F915-4137-85CF-5A81894CE5E8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{567AD433-C602-4793-AF56-C8F6FFFDC5B4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{EF78F4E6-039A-B045-8B9B-D365EA49AFBB}">
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{197DA58C-0E1F-4642-9F9C-2F0DE63C34AF}">
+    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{F629E569-BEC6-44AB-8A17-99FA561689CD}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{DE325A39-7F03-4001-A61E-BC0056AFEC89}">
+    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG37" authorId="1" shapeId="0" xr:uid="{76923BFD-A6C4-4EB9-A26A-BD52036ACAA9}">
+    <comment ref="AG37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{91F2D058-84AE-4181-B1E8-4C372CE77CEA}">
+    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{5CE6EF66-611A-4714-A013-6A8C5D13A084}">
+    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{B8AC189D-A071-42A5-B581-B1F819D42AD9}">
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{8F661D32-F8E3-4020-9B05-FF924A9DEA48}">
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R56" authorId="1" shapeId="0" xr:uid="{E3E64D4D-C28F-4CBB-9BA2-0E09167956F2}">
+    <comment ref="R56" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG56" authorId="1" shapeId="0" xr:uid="{0F3B6A2B-7723-48A8-91E6-0284E8B63C3C}">
+    <comment ref="AG56" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{E0F57D87-D490-A54E-BF74-50CFE78F96E7}">
+    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9CC69C53-3AF8-164C-9791-D62AE67A6E71}">
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{D7DB8497-0070-9242-A38F-B6C1B02B9C4C}">
+    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -533,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{8681758D-DB32-814F-BE7E-2E5CEB3799E0}">
+    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -566,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{3DA8DB71-74B9-6749-B8AA-8DBEF5D14887}">
+    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{E9281452-B7CE-0A43-869E-7E88B7B5D10F}">
+    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -632,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{AB5D3590-E365-0D4E-B750-8A82ADD944ED}">
+    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -665,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{9D3FEF81-BEDF-BF4C-ACEB-A21E1ECCCF94}">
+    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{B531BFC8-06AD-1A4D-9758-3C71FBFF8F58}">
+    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -731,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{ACC72A40-72C1-E64B-A41A-A258407DBA9B}">
+    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -764,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{D421B0EE-8284-474D-A27C-CA894278DEBE}">
+    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -797,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{4AFBBDD4-B71A-A547-8139-A70B50E141DF}">
+    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -830,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{8B1C245A-AAD0-104A-B1EB-206E44EB1382}">
+    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -863,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{582C5344-82DE-FF44-8DA1-9E27F974436C}">
+    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{2EBD08FA-9B59-4A47-A9D8-7A818DB89D75}">
+    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -929,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{4649956B-35AA-42BC-8439-9A6FB7704FD9}">
+    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{F2192F06-917C-43E1-8F78-5AE86D2C8D71}">
+    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -977,7 +979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{279ED60C-74BD-4DC3-B903-A46A359E1FA9}">
+    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{1ACE5722-BBE3-4795-A4C1-677C921591FB}">
+    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1033,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="321">
   <si>
     <t># Initial population</t>
   </si>
@@ -1858,216 +1860,6 @@
     <t>rpert(10000, 0.09/12, 0.26/12, 0.105/12)</t>
   </si>
   <si>
-    <t>0.11/13</t>
-  </si>
-  <si>
-    <t>0.11/14</t>
-  </si>
-  <si>
-    <t>0.11/15</t>
-  </si>
-  <si>
-    <t>0.11/16</t>
-  </si>
-  <si>
-    <t>0.11/17</t>
-  </si>
-  <si>
-    <t>0.11/18</t>
-  </si>
-  <si>
-    <t>0.11/19</t>
-  </si>
-  <si>
-    <t>0.11/20</t>
-  </si>
-  <si>
-    <t>0.11/21</t>
-  </si>
-  <si>
-    <t>0.11/22</t>
-  </si>
-  <si>
-    <t>0.11/23</t>
-  </si>
-  <si>
-    <t>0.11/24</t>
-  </si>
-  <si>
-    <t>0.11/25</t>
-  </si>
-  <si>
-    <t>0.11/26</t>
-  </si>
-  <si>
-    <t>0.71/13</t>
-  </si>
-  <si>
-    <t>0.71/14</t>
-  </si>
-  <si>
-    <t>0.71/15</t>
-  </si>
-  <si>
-    <t>0.71/16</t>
-  </si>
-  <si>
-    <t>0.71/17</t>
-  </si>
-  <si>
-    <t>0.71/18</t>
-  </si>
-  <si>
-    <t>0.71/19</t>
-  </si>
-  <si>
-    <t>0.71/20</t>
-  </si>
-  <si>
-    <t>0.71/21</t>
-  </si>
-  <si>
-    <t>0.71/22</t>
-  </si>
-  <si>
-    <t>0.71/23</t>
-  </si>
-  <si>
-    <t>0.71/24</t>
-  </si>
-  <si>
-    <t>0.71/25</t>
-  </si>
-  <si>
-    <t>0.71/26</t>
-  </si>
-  <si>
-    <t>0.28/13</t>
-  </si>
-  <si>
-    <t>0.28/14</t>
-  </si>
-  <si>
-    <t>0.28/15</t>
-  </si>
-  <si>
-    <t>0.28/16</t>
-  </si>
-  <si>
-    <t>0.28/17</t>
-  </si>
-  <si>
-    <t>0.28/18</t>
-  </si>
-  <si>
-    <t>0.28/19</t>
-  </si>
-  <si>
-    <t>0.28/20</t>
-  </si>
-  <si>
-    <t>0.28/21</t>
-  </si>
-  <si>
-    <t>0.28/22</t>
-  </si>
-  <si>
-    <t>0.28/23</t>
-  </si>
-  <si>
-    <t>0.28/24</t>
-  </si>
-  <si>
-    <t>0.28/25</t>
-  </si>
-  <si>
-    <t>0.28/26</t>
-  </si>
-  <si>
-    <t>0/13</t>
-  </si>
-  <si>
-    <t>0/14</t>
-  </si>
-  <si>
-    <t>0/15</t>
-  </si>
-  <si>
-    <t>0/16</t>
-  </si>
-  <si>
-    <t>0/17</t>
-  </si>
-  <si>
-    <t>0/18</t>
-  </si>
-  <si>
-    <t>0/19</t>
-  </si>
-  <si>
-    <t>0/20</t>
-  </si>
-  <si>
-    <t>0/21</t>
-  </si>
-  <si>
-    <t>0/22</t>
-  </si>
-  <si>
-    <t>0/23</t>
-  </si>
-  <si>
-    <t>0/24</t>
-  </si>
-  <si>
-    <t>0/25</t>
-  </si>
-  <si>
-    <t>0/26</t>
-  </si>
-  <si>
-    <t>0.05/13</t>
-  </si>
-  <si>
-    <t>0.05/14</t>
-  </si>
-  <si>
-    <t>0.05/15</t>
-  </si>
-  <si>
-    <t>0.05/16</t>
-  </si>
-  <si>
-    <t>0.05/17</t>
-  </si>
-  <si>
-    <t>0.05/18</t>
-  </si>
-  <si>
-    <t>0.05/19</t>
-  </si>
-  <si>
-    <t>0.05/20</t>
-  </si>
-  <si>
-    <t>0.05/21</t>
-  </si>
-  <si>
-    <t>0.05/22</t>
-  </si>
-  <si>
-    <t>0.05/23</t>
-  </si>
-  <si>
-    <t>0.05/24</t>
-  </si>
-  <si>
-    <t>0.05/25</t>
-  </si>
-  <si>
-    <t>0.05/26</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.139/12, 0.139/12, 0.139/12)</t>
   </si>
   <si>
@@ -2173,9 +1965,6 @@
     <t>draft animal</t>
   </si>
   <si>
-    <t>rpert(10000, 0,48,0.48,0.48)</t>
-  </si>
-  <si>
     <t>rpert(10000, 1.37,1.37, 1.37)</t>
   </si>
   <si>
@@ -2185,48 +1974,6 @@
     <t>0.034/12</t>
   </si>
   <si>
-    <t>0.034/13</t>
-  </si>
-  <si>
-    <t>0.034/14</t>
-  </si>
-  <si>
-    <t>0.034/15</t>
-  </si>
-  <si>
-    <t>0.034/16</t>
-  </si>
-  <si>
-    <t>0.034/17</t>
-  </si>
-  <si>
-    <t>0.034/18</t>
-  </si>
-  <si>
-    <t>0.034/19</t>
-  </si>
-  <si>
-    <t>0.034/20</t>
-  </si>
-  <si>
-    <t>0.034/21</t>
-  </si>
-  <si>
-    <t>0.034/22</t>
-  </si>
-  <si>
-    <t>0.034/23</t>
-  </si>
-  <si>
-    <t>0.034/24</t>
-  </si>
-  <si>
-    <t>0.034/25</t>
-  </si>
-  <si>
-    <t>0.034/26</t>
-  </si>
-  <si>
     <t>0.007/12</t>
   </si>
   <si>
@@ -2236,142 +1983,16 @@
     <t>0.42/12</t>
   </si>
   <si>
-    <t>0.007/13</t>
-  </si>
-  <si>
-    <t>0.007/14</t>
-  </si>
-  <si>
-    <t>0.007/15</t>
-  </si>
-  <si>
-    <t>0.007/16</t>
-  </si>
-  <si>
-    <t>0.007/17</t>
-  </si>
-  <si>
-    <t>0.007/18</t>
-  </si>
-  <si>
-    <t>0.007/19</t>
-  </si>
-  <si>
-    <t>0.007/20</t>
-  </si>
-  <si>
-    <t>0.007/21</t>
-  </si>
-  <si>
-    <t>0.007/22</t>
-  </si>
-  <si>
-    <t>0.007/23</t>
-  </si>
-  <si>
-    <t>0.007/24</t>
-  </si>
-  <si>
-    <t>0.007/25</t>
-  </si>
-  <si>
-    <t>0.007/26</t>
-  </si>
-  <si>
-    <t>0.042/13</t>
-  </si>
-  <si>
-    <t>0.042/14</t>
-  </si>
-  <si>
-    <t>0.042/15</t>
-  </si>
-  <si>
-    <t>0.042/16</t>
-  </si>
-  <si>
-    <t>0.042/17</t>
-  </si>
-  <si>
-    <t>0.042/18</t>
-  </si>
-  <si>
-    <t>0.042/19</t>
-  </si>
-  <si>
-    <t>0.042/20</t>
-  </si>
-  <si>
-    <t>0.042/21</t>
-  </si>
-  <si>
-    <t>0.042/22</t>
-  </si>
-  <si>
-    <t>0.042/23</t>
-  </si>
-  <si>
-    <t>0.042/24</t>
-  </si>
-  <si>
-    <t>0.042/25</t>
-  </si>
-  <si>
-    <t>0.042/26</t>
-  </si>
-  <si>
-    <t>0.42/13</t>
-  </si>
-  <si>
-    <t>0.42/14</t>
-  </si>
-  <si>
-    <t>0.42/15</t>
-  </si>
-  <si>
-    <t>0.42/16</t>
-  </si>
-  <si>
-    <t>0.42/17</t>
-  </si>
-  <si>
-    <t>0.42/18</t>
-  </si>
-  <si>
-    <t>0.42/19</t>
-  </si>
-  <si>
-    <t>0.42/20</t>
-  </si>
-  <si>
-    <t>0.42/21</t>
-  </si>
-  <si>
-    <t>0.42/22</t>
-  </si>
-  <si>
-    <t>0.42/23</t>
-  </si>
-  <si>
-    <t>0.42/24</t>
-  </si>
-  <si>
-    <t>0.42/25</t>
-  </si>
-  <si>
-    <t>0.42/26</t>
-  </si>
-  <si>
-    <t>rpert(10000, (2.19*12.5*0.09515), (9*12.5*0.09515), (5.4*12.5*0.09515))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (6000), (26750), (15591))</t>
+    <t>rpert(10000, 0.48,0.48,0.48)</t>
   </si>
   <si>
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
   </si>
   <si>
     <t>rpert(10000, (6350+635), (14500+1450), (9912+991))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2675), (15591), (6000))</t>
   </si>
   <si>
     <t>rpert(10000, 0.062/12, 0.062/12, 0.062/12)</t>
@@ -3029,14 +2650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="AS122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,7 +4033,7 @@
         <v>134</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="C11" s="25">
         <v>1906349</v>
@@ -5005,94 +4626,94 @@
         <v>80</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>228</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="O17" s="41" t="s">
         <v>228</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>380</v>
+        <v>316</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="T17" s="38">
         <v>0.92</v>
       </c>
-      <c r="U17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="V17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="X17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC17" s="30" t="s">
-        <v>380</v>
+      <c r="U17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="X17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC17" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="AD17" s="38">
         <v>0.92</v>
       </c>
-      <c r="AE17" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF17" s="30" t="s">
-        <v>380</v>
+      <c r="AE17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF17" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="AG17" s="29">
         <v>0.87</v>
@@ -5647,94 +5268,94 @@
         <v>83</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>230</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="O23" s="41" t="s">
         <v>230</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="T23" s="38" t="s">
         <v>230</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="W23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="X23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="Z23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AA23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AC23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AD23" s="38" t="s">
         <v>230</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AF23" s="30" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="AG23" s="29" t="s">
         <v>263</v>
@@ -6628,46 +6249,46 @@
         <v>221</v>
       </c>
       <c r="AH34" s="29" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="AI34" s="29" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="AJ34" s="29" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="AK34" s="29" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="AL34" s="29" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="AM34" s="29" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="AN34" s="29" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="AO34" s="29" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="AP34" s="29" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="AQ34" s="29" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="AR34" s="29" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="AS34" s="29" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AT34" s="29" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="AU34" s="29" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="AV34" s="31"/>
       <c r="AW34" s="31"/>
@@ -6773,46 +6394,46 @@
         <v>222</v>
       </c>
       <c r="AH35" s="29" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AI35" s="29" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="AJ35" s="29" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="AK35" s="29" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AL35" s="29" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="AM35" s="29" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="AN35" s="29" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="AO35" s="29" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="AP35" s="29" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="AQ35" s="29" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="AR35" s="29" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="AS35" s="29" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="AT35" s="29" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="AU35" s="29" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="AV35" s="31"/>
       <c r="AW35" s="31"/>
@@ -6888,94 +6509,94 @@
         <v>-3.3333333333333332E-4</v>
       </c>
       <c r="R36" s="30" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="U36" s="30" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="V36" s="30" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="W36" s="30" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="X36" s="30" t="s">
-        <v>406</v>
+        <v>313</v>
       </c>
       <c r="Y36" s="30" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="Z36" s="30" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="AA36" s="30" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="AB36" s="30" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="AC36" s="30" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="AD36" s="30" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="AE36" s="30" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="AF36" s="30" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="AG36" s="29" t="s">
         <v>223</v>
       </c>
       <c r="AH36" s="29" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="AI36" s="29" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="AJ36" s="29" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AK36" s="29" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="AL36" s="29" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="AM36" s="29" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="AN36" s="29" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="AO36" s="29" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="AP36" s="29" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="AQ36" s="29" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="AR36" s="29" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="AS36" s="29" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="AT36" s="29" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="AU36" s="29" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="AV36" s="31"/>
       <c r="AW36" s="31"/>
@@ -6991,139 +6612,139 @@
         <v>13</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="O37" s="61" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="P37" s="61" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="R37" s="30" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="U37" s="30" t="s">
-        <v>417</v>
+        <v>314</v>
       </c>
       <c r="V37" s="30" t="s">
-        <v>418</v>
+        <v>314</v>
       </c>
       <c r="W37" s="30" t="s">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="X37" s="30" t="s">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="Z37" s="30" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="AA37" s="30" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="AB37" s="30" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="AC37" s="30" t="s">
-        <v>425</v>
+        <v>314</v>
       </c>
       <c r="AD37" s="30" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="AE37" s="30" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
       <c r="AF37" s="30" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="AG37" s="29" t="s">
         <v>225</v>
       </c>
       <c r="AH37" s="29" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="AI37" s="29" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AJ37" s="29" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="AK37" s="29" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="AL37" s="29" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="AM37" s="29" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="AN37" s="29" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="AO37" s="29" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="AP37" s="29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="AQ37" s="29" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="AR37" s="29" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="AS37" s="29" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="AT37" s="29" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="AU37" s="29" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="AV37" s="31"/>
       <c r="AW37" s="31"/>
@@ -7199,94 +6820,94 @@
         <v>-3.3333333333333332E-4</v>
       </c>
       <c r="R38" s="62" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="S38" s="62" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="T38" s="62" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="U38" s="62" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="V38" s="62" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="W38" s="62" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="X38" s="62" t="s">
-        <v>406</v>
+        <v>313</v>
       </c>
       <c r="Y38" s="62" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="Z38" s="62" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="AA38" s="62" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="AB38" s="62" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="AC38" s="62" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="AD38" s="62" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="AE38" s="62" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="AF38" s="62" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="AG38" s="63" t="s">
         <v>223</v>
       </c>
       <c r="AH38" s="63" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="AI38" s="63" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="AJ38" s="63" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AK38" s="63" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="AL38" s="63" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="AM38" s="63" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="AN38" s="63" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="AO38" s="63" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="AP38" s="63" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="AQ38" s="63" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="AR38" s="63" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="AS38" s="63" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="AT38" s="63" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="AU38" s="63" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="AV38" s="31"/>
       <c r="AW38" s="31"/>
@@ -7302,139 +6923,139 @@
         <v>14</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="L39" s="61" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="O39" s="61" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="P39" s="61" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="Q39" s="61" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="R39" s="62" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="S39" s="62" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="T39" s="62" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="U39" s="62" t="s">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="V39" s="62" t="s">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="W39" s="62" t="s">
-        <v>433</v>
+        <v>315</v>
       </c>
       <c r="X39" s="62" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="Y39" s="62" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="Z39" s="62" t="s">
-        <v>436</v>
+        <v>315</v>
       </c>
       <c r="AA39" s="62" t="s">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="AB39" s="62" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
       <c r="AC39" s="62" t="s">
-        <v>439</v>
+        <v>315</v>
       </c>
       <c r="AD39" s="62" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="AE39" s="62" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="AF39" s="62" t="s">
-        <v>442</v>
+        <v>315</v>
       </c>
       <c r="AG39" s="63" t="s">
         <v>224</v>
       </c>
       <c r="AH39" s="63" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="AI39" s="63" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="AJ39" s="63" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="AK39" s="63" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="AL39" s="63" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="AM39" s="63" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="AN39" s="63" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="AO39" s="63" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="AP39" s="63" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="AQ39" s="63" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="AR39" s="63" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="AS39" s="63" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="AT39" s="63" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="AU39" s="63" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="AV39" s="31"/>
       <c r="AW39" s="31"/>
@@ -7540,46 +7161,46 @@
         <v>225</v>
       </c>
       <c r="AH40" s="29" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="AI40" s="29" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="AJ40" s="29" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="AK40" s="29" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="AL40" s="29" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="AM40" s="29" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="AN40" s="29" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="AO40" s="29" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="AP40" s="29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="AQ40" s="29" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="AR40" s="29" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="AS40" s="29" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="AT40" s="29" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="AU40" s="29" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="AV40" s="31"/>
       <c r="AW40" s="31"/>
@@ -7747,7 +7368,7 @@
         <v>226</v>
       </c>
       <c r="AG43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AH43" s="37">
         <v>0</v>
@@ -7759,16 +7380,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AL43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AM43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AN43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AO43" s="37">
         <v>0</v>
@@ -7777,19 +7398,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AR43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AS43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AT43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AU43" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
@@ -7896,7 +7517,7 @@
         <v>227</v>
       </c>
       <c r="AG44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AH44" s="37">
         <v>0</v>
@@ -7905,25 +7526,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AK44" s="37">
         <v>0</v>
       </c>
       <c r="AL44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AM44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AN44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AO44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AP44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AQ44" s="37">
         <v>0</v>
@@ -7932,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AT44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AU44" s="36" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
@@ -10739,97 +10360,97 @@
         <v>34</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="M69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="N69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="O69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="Q69" s="25" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="S69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="T69" s="38" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="U69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="V69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="W69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="X69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="Y69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="Z69" s="38" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="AA69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AB69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AC69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AD69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AE69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AF69" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="AG69" s="29" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="AH69" s="29" t="s">
         <v>171</v>
@@ -10890,94 +10511,94 @@
         <v>35</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="M70" s="41" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="N70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="O70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="Q70" s="25" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="R70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="S70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="T70" s="38" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="U70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="V70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="W70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="X70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Y70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Z70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AA70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AB70" s="38" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="AC70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AD70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AE70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AF70" s="30" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AG70" s="29" t="s">
         <v>172</v>
@@ -11041,94 +10662,94 @@
         <v>36</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="O71" s="41" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="P71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="Q71" s="25" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="R71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="S71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="T71" s="38" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="U71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="V71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="W71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="X71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="Y71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="Z71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AA71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AB71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AC71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AD71" s="38" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="AE71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AF71" s="30" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="AG71" s="29" t="s">
         <v>173</v>
@@ -11205,94 +10826,94 @@
         <v>37</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="L72" s="41" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="N72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="O72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="Q72" s="25" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="R72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="S72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="T72" s="38" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="U72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="V72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="W72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="X72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="Y72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="Z72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AA72" s="38" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="AB72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AC72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AD72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AE72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AF72" s="30" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AG72" s="29" t="s">
         <v>174</v>
@@ -11356,94 +10977,94 @@
         <v>38</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>444</v>
+        <v>319</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N73" s="41" t="s">
-        <v>444</v>
+        <v>319</v>
       </c>
       <c r="O73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q73" s="25" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="R73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="S73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="T73" s="38" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="U73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="V73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="W73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="X73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="Y73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="Z73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AA73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AB73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AC73" s="38" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AD73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AE73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AF73" s="30" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="AG73" s="29" t="s">
         <v>175</v>
@@ -11507,94 +11128,94 @@
         <v>39</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="M74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="N74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="O74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="P74" s="41" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="Q74" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="R74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="S74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="T74" s="38" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="U74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="V74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="W74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="X74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="Y74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="Z74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AA74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AB74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AC74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AD74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AE74" s="38" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="AF74" s="30" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AG74" s="29" t="s">
         <v>176</v>
@@ -11655,49 +11276,49 @@
         <v>144</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="M75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="O75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="Q75" s="41" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="R75" s="30">
         <v>0</v>
@@ -12452,49 +12073,49 @@
         <v>106</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="N84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="O84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="Q84" s="25" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="R84" s="30" t="s">
         <v>271</v>
@@ -15551,139 +15172,139 @@
         <v>58</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="L112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="N112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="O112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q112" s="25" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="R112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="S112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="T112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="U112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="V112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="W112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="X112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Y112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Z112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AA112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AB112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AC112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AD112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AE112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AF112" s="30" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AG112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AH112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AI112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AJ112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AK112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AL112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AM112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AN112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AO112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AP112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AQ112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AR112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AS112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AT112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AU112" s="29" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AV112" s="4"/>
       <c r="AW112" s="4"/>
@@ -16290,139 +15911,139 @@
         <v>155</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="J122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="L122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="M122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="N122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="O122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="P122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="Q122" s="25" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="R122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="S122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="T122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="U122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="V122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="W122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="X122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="Y122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="Z122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AA122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AB122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AC122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AD122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AE122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AF122" s="30" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="AG122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AH122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AI122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AJ122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AK122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AL122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AM122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AN122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AO122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AP122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AQ122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AR122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AS122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AT122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AU122" s="29" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="AV122" s="4"/>
       <c r="AW122" s="4"/>
@@ -16759,49 +16380,49 @@
         <v>147</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="L125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="N125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="O125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="P125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="Q125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="R125" s="30">
         <v>0</v>
@@ -16849,49 +16470,49 @@
         <v>0</v>
       </c>
       <c r="AG125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AH125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AI125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AJ125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AK125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AL125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AM125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AN125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AO125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AP125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AQ125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AR125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AS125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AT125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AU125" s="25" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="AV125" s="4"/>
       <c r="AW125" s="4"/>
@@ -17186,139 +16807,139 @@
         <v>69</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="E131" s="60">
         <v>0</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="H131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="J131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="K131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="L131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="M131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="N131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="O131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="P131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="Q131" s="25" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="R131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="S131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="T131" s="30">
         <v>0</v>
       </c>
       <c r="U131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="V131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="W131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="X131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="Y131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="Z131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AA131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AB131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AC131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AD131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AE131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AF131" s="30" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AG131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AH131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AI131" s="29">
         <v>0</v>
       </c>
       <c r="AJ131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AK131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AL131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AM131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AN131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AO131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AP131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AQ131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AR131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AS131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AT131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AU131" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="BB131" s="4"/>
       <c r="BN131"/>
@@ -17329,139 +16950,139 @@
       </c>
       <c r="B132" s="35"/>
       <c r="C132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="E132" s="60">
         <v>0</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="I132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="J132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="L132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="M132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="N132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="O132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="P132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="Q132" s="25" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="R132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="S132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="T132" s="30">
         <v>0</v>
       </c>
       <c r="U132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="V132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="W132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="X132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="Y132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="Z132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AA132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AB132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AC132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AD132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AE132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AF132" s="30" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AG132" s="29" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="AH132" s="29" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="AI132" s="29">
         <v>0</v>
       </c>
       <c r="AJ132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AK132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AL132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AM132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AN132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AO132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AP132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AQ132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AR132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AS132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AT132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AU132" s="29" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="AV132" s="4"/>
       <c r="AW132" s="4"/>
@@ -19018,7 +18639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D08064-68C3-4BB0-A64D-3A606C4D4B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/SNNP 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/SNNP 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274346C-3E9C-46A3-96D5-D5DE8075FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC7B0F1-BCB4-42A0-A2E5-694E077F9F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1992,10 +1992,10 @@
     <t>rpert(10000, (6350+635), (14500+1450), (9912+991))</t>
   </si>
   <si>
-    <t>rpert(10000, (2675), (15591), (6000))</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.062/12, 0.062/12, 0.062/12)</t>
+  </si>
+  <si>
+    <t>rpert(10000, (6000), (26750), (15591))</t>
   </si>
 </sst>
 </file>
@@ -7517,7 +7517,7 @@
         <v>227</v>
       </c>
       <c r="AG44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH44" s="37">
         <v>0</v>
@@ -7526,25 +7526,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK44" s="37">
         <v>0</v>
       </c>
       <c r="AL44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AO44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AP44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AQ44" s="37">
         <v>0</v>
@@ -7553,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AT44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AU44" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
@@ -10983,7 +10983,7 @@
         <v>280</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>280</v>
@@ -11010,7 +11010,7 @@
         <v>280</v>
       </c>
       <c r="N73" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O73" s="25" t="s">
         <v>280</v>
